--- a/biology/Médecine/Dr_House/Dr_House.xlsx
+++ b/biology/Médecine/Dr_House/Dr_House.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dr House (House M.D.) est une série télévisée américaine en 177 épisodes de 42 minutes et répartis sur huit saisons, créée par David Shore et diffusée du 16 novembre 2004 au 21 mai 2012 sur le réseau Fox et en simultané au Canada sur le réseau Global.
 Cette série médicale, produite par Paul Attanasio, Katie Jacobs et Bryan Singer, a pour personnage central le Dr Gregory House, médecin misanthrope aux méthodes peu conventionnelles interprété par l'acteur anglais Hugh Laurie. À la tête du service de diagnostic[N 1] de l'hôpital fictif Princeton Plainsboro, il résout à chaque épisode, avec l'aide de son équipe, un mystère médical posé par l'état d'un patient. Sa directrice, administratrice de l'hôpital et doyenne de la faculté, le docteur Lisa Cuddy (Lisa Edelstein), tente par ailleurs de gérer House et ses approches controversées avec l'aide du meilleur ami de celui-ci, le docteur en oncologie James Wilson (Robert Sean Leonard).
-En France, la série est diffusée entre le 28 février 2007 et le 19 mars 2013 sur TF1 puis rediffusée à partir du 8 août 2013 sur HD1 en VM ; en Belgique, depuis le 6 août 2006 sur RTL-TVI et rediffusée depuis l'automne 2016 sur la RTBF en fin d'après-midi et sur Plug RTL ; au Québec depuis le 25 février 2006 sur Mystère/AddikTV[1] et rediffusée en clair depuis le 4 avril 2007 sur le réseau TVA[2] ; en Suisse, depuis le 16 août 2007 sur RTS Un.
-Dr House a reçu un accueil très positif et fait de bons scores d'audimat pour ses premières saisons. Diffusée dans plus de 60 pays, la série est la plus regardée dans le monde en 2008. Elle a également reçu de nombreuses récompenses, dont des Golden Globes et des Emmy Awards. La série fait partie de l'édition 2012 du Livre Guinness des records en tant que « programme le plus populaire actuellement à la télévision », détrônant ainsi Les Experts : Miami[3].
-La série — et en particulier son personnage principal — soulève des questions philosophiques d'éthique et des problématiques de déontologie médicale. Début 2012, la Fox annonce la fin de la série avec la huitième saison, le prix demandé par le producteur à la chaîne télévisée devenant trop élevé pour l'audience, tombée à moins de huit millions de téléspectateurs par épisode[4].
+En France, la série est diffusée entre le 28 février 2007 et le 19 mars 2013 sur TF1 puis rediffusée à partir du 8 août 2013 sur HD1 en VM ; en Belgique, depuis le 6 août 2006 sur RTL-TVI et rediffusée depuis l'automne 2016 sur la RTBF en fin d'après-midi et sur Plug RTL ; au Québec depuis le 25 février 2006 sur Mystère/AddikTV et rediffusée en clair depuis le 4 avril 2007 sur le réseau TVA ; en Suisse, depuis le 16 août 2007 sur RTS Un.
+Dr House a reçu un accueil très positif et fait de bons scores d'audimat pour ses premières saisons. Diffusée dans plus de 60 pays, la série est la plus regardée dans le monde en 2008. Elle a également reçu de nombreuses récompenses, dont des Golden Globes et des Emmy Awards. La série fait partie de l'édition 2012 du Livre Guinness des records en tant que « programme le plus populaire actuellement à la télévision », détrônant ainsi Les Experts : Miami.
+La série — et en particulier son personnage principal — soulève des questions philosophiques d'éthique et des problématiques de déontologie médicale. Début 2012, la Fox annonce la fin de la série avec la huitième saison, le prix demandé par le producteur à la chaîne télévisée devenant trop élevé pour l'audience, tombée à moins de huit millions de téléspectateurs par épisode.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Gregory House, brillant médecin misanthrope et peu conventionnel, dirige une équipe de « diagnosticiens » (internistes en français) au sein de l'hôpital fictif de Princeton-Plainsboro dans le New Jersey. House, chef de l'unique service de diagnostic du pays, se montre souvent arrogant, cynique, anticonformiste et asocial. Il boite en raison d'une douleur chronique à la jambe droite due à un infarctus du muscle de la cuisse. Il utilise une canne et abuse de Vicodin, analgésique opiacé à base de paracétamol et d'hydrocodone, pour soulager sa douleur.
 Avec son équipe, composée des docteurs Allison Cameron, Robert Chase et Eric Foreman, il est chargé d'éclaircir des mystères médicaux, lorsque d'autres médecins n'ont pu trouver la cause ou le traitement des symptômes que les patients présentent. Il doit également donner des consultations ouvertes au public, consultations dont le nombre et la fréquence sont souvent l'objet de tractations entre House et Cuddy, le premier ne tenant pas à perdre son précieux temps avec des cas trop simples. Contraint de recruter une nouvelle équipe au début de la quatrième saison, House engage Chris Taub, Remy Hadley et Lawrence Kutner, puis les docteurs Masters, Adams et Park dans les dernières saisons.
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Hugh Laurie (VF : Féodor Atkine) : Gregory House
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugh Laurie (VF : Féodor Atkine) : Gregory House
 Lisa Edelstein (VF : Frédérique Tirmont) : Lisa Cuddy (saisons 1 à 7)
 Robert Sean Leonard (VF : Pierre Tessier) : James Wilson
 Omar Epps (VF : Lucien Jean-Baptiste) : Eric Foreman
@@ -577,8 +596,43 @@
 			Amber Tamblyn
 			Odette Annable
 			Charlyne Yi
-Acteurs secondaires
-Chi McBride (VF : Saïd Amadis) : Edward Vogler, milliardaire, président du conseil d'administration de l'hôpital (saison 1)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chi McBride (VF : Saïd Amadis) : Edward Vogler, milliardaire, président du conseil d'administration de l'hôpital (saison 1)
 Sela Ward (VF : Céline Monsarrat) : Stacy Warner, ex-compagne de House (saisons 1 et 2, invitée dernier épisode de la saison 8)
 Currie Graham (VF : Jean-Louis Faure) : Mark Warner, mari de Stacy (saisons 1 et 2)
 David Morse (VF : Bernard Lanneau) : Michael Tritter, policier ennemi de House (saison 3)
@@ -591,32 +645,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dr_House</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Personnages</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -638,10 +666,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Saison 1
 L'épisode pilote Les Symptômes de Rebecca Adler[E 1] présente les personnages de l'équipe de House et pose les bases des relations entre House et Wilson, ainsi que des sentiments de Cameron pour son patron. Dans À bout de nerfs[E 2], la toxicomanie de House au Vicodin est évoquée. Dans Changement de direction[E 3] et Sacrifices[E 4], House est confronté au nouvel administrateur de l'hôpital, Edward Vogler, un milliardaire qui veut se débarrasser de House, finalement défendu par Cuddy, ce qui pousse Vogler à quitter la direction de l'hôpital. À la fin de la saison, dans Cours magistral[E 5], on apprend d'où vient la douleur de House, et son ancienne compagne, Stacy Warner, réapparaît pour lui demander son aide au bénéfice de son mari, Mark Warner.
@@ -662,35 +720,73 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dr_House</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf mention contraire, les informations ci-dessous sont issues de la page Full cast and crew sur l'Internet Movie Database[5].
-Équipe technique
-Création : David Shore[6]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les informations ci-dessous sont issues de la page Full cast and crew sur l'Internet Movie Database.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Équipe technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Création : David Shore
 Réalisation : Greg Yaitanes, Deran Sarafian, David Straiton, Daniel Attias, Daniel Sackheim, Miguel Sapochnik, David Platt, Matt Shakman, Juan José Campanella, Katie Jacobs, Andrew Bernstein, Sanford Bookstaver, Peter O'Fallon, Fred Gerber, David Semel, Lesli Linka Glatter, Bryan Singer (pilote), Newton Thomas Sigel, Bryan Spicer, Frederick King Keller, David Shore, James Hayman, Martha Mitchell, Hugh Laurie, Tucker Gates, Tim Southam, Laura Innes, Paul McCrane, Keith Gordon
 Scénario : David Shore, Peter Blake, David Foster, Thomas L. Moran, Russel Friend, Garrett Lerner, Liz Friedman, Sara Hess, Doris Egan, David Hoselton, Eli Attie, John C. Kelley, Pam Davis, Leonard Dick, John Mankiewicz, Matt Witten, Matthew V. Lewis, Seth Hoffman, Kath Lingenfelter, Sara B. Cooper, Dustin Paddock, Marqui Jackson
 Production :
@@ -705,52 +801,92 @@
 Musique : Jason Derlatka et Jon Ehrlich ; Christopher Hoag (pilote)
 Générique : Teardrop de Massive Attack
 Conseil médical : Harley Liker, Lisa Sanders, Bobbin Bergstrom
-Spécifications techniques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spécifications techniques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pays d'origine :  États-Unis
 Années de diffusion : 2004 – 2012
 Diffuseur : Fox
 Durée des épisodes : 42 minutes
 Lieux de tournage : Los Angeles (CA) : 20th Century Fox Studios ; Princeton (NJ) pour les vues aériennes
 Format : filmé en 35 mm puis numérique avec des caméras Arricam LT et ST, Cooke S4, Angénieux Optimo Lenses et Canon EOS 5D Mark II ; diffusé en 1.78 : 1 puis 16:9 HD et TVHD avec un son Dolby Digital
-Doublage : Mediadub International[7] ; adaptation des dialogues : Sophie Désir et Valérie Marchand
+Doublage : Mediadub International ; adaptation des dialogues : Sophie Désir et Valérie Marchand
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dr_House</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr_House</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_House</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Développement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Conception
-En 2004, les cocréateurs David Shore et Paul Attanasio[N 2], ainsi que Katie Jacobs, ont présenté à la Fox une série médicale « whodunit » (sans titre à l'époque) dans le style des Experts[8], un « polar à l'hôpital » où les médecins enquêtent sur des symptômes et leurs causes[9]. Attanasio dit avoir été inspiré pour créer une série médicale procédurale (une intrigue par épisode) par un éditorial du New York Times Magazine intitulé Diagnosis[10] (« diagnostics » en français) et rédigé par le docteur Lisa Sanders[11]. La Fox a acheté la série, mais la présidente de la chaîne d'alors, Gail Berman, a déclaré à l'équipe de création : « je veux une série médicale, mais je ne veux pas voir de blouse blanche dans les couloirs[N 3],[12]. »
-La série ainsi programmée a initialement pris le titre de production de Chasing Zebras, Circling the Drain[13] : « Chasing Zebras », littéralement « à la poursuite des zèbres », est un terme d'argot médical pour un diagnostic inhabituel ou obscur[N 4],[14], tandis que « Circling the Drain » se réfère aux cas de patients en phase terminale, dans un phénomène de descente irréversible vers la mort[15], pouvant être traduit en français par « avec un pied dans la tombe[16] ». Le principe original de la série était de présenter une équipe de médecins travaillant ensemble pour essayer de « diagnostiquer l'indiagnosticable[17] ». Shore a estimé qu'il était important d'avoir un personnage central intéressant, qui pourrait examiner les caractéristiques personnelles des patients et diagnostiquer leurs maux par la découverte de leurs secrets et de leurs mensonges[17].
-Alors que Shore et le reste de l'équipe de création explorent les possibilités du personnage, le concept de la série devient moins une procédure policière diagnostique qu'une histoire centrée sur le rôle principal[18]. Le personnage est nommé « House » et il donne finalement son nom à la série[13]. Shore a par la suite développé les personnages plus en profondeur et écrit le scénario de l'épisode pilote[8] (intitulé Pilot[N 5] en anglais, et Les Symptômes de Rebecca Adler dans l'adaptation française). Il explique que les scénarios de plusieurs épisodes sont basés sur les travaux de Berton Roueché, chroniqueur pour The New Yorker entre 1944 et 1994, qui s'est spécialisé dans les éléments inhabituels de la médecine[9].
-Shore a également adapté le concept du personnage-titre à sa propre expérience en tant que patient dans un hôpital universitaire[19]. Shore avait alors pris rendez-vous pour une douleur à la hanche, mais, arrivé à l'hôpital, la douleur avait disparu : « je savais que, dès que j'aurais tourné les talons, ils se moqueraient de moi. J'ai pensé qu'il serait intéressant de voir un personnage qui le ferait en présence du patient avant que celui-ci ait quitté la salle d'examen[N 6],[20]. » Un élément central de la série est que le personnage principal serait en quelque sorte handicapé[21] : à l'origine, House devait se déplacer en fauteuil roulant, mais Fox a rejeté cette option. Katie Jacobs a par la suite exprimé sa gratitude envers la chaîne d'avoir refusé l'idée originale, refus ayant conduit les scénaristes à repenser le personnage : le mettre sur ses pieds lui a offert une présence physique cruciale[18]. Les scénaristes choisissent alors de présenter un House boiteux, conséquence d'un diagnostic erroné l'obligeant à se servir d'une canne et lui causant des douleurs chroniques, qui ont elles-mêmes entraîné une addiction aux antalgiques opiacés[21]. Le script original évoquait un acteur connu de 34 ans dans le rôle-titre, mais Shore a déclaré qu'un médecin ressemblant à Brad Pitt n'aurait pas eu l'air convaincant[22].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conception</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En 2004, les cocréateurs David Shore et Paul Attanasio[N 2], ainsi que Katie Jacobs, ont présenté à la Fox une série médicale « whodunit » (sans titre à l'époque) dans le style des Experts, un « polar à l'hôpital » où les médecins enquêtent sur des symptômes et leurs causes. Attanasio dit avoir été inspiré pour créer une série médicale procédurale (une intrigue par épisode) par un éditorial du New York Times Magazine intitulé Diagnosis (« diagnostics » en français) et rédigé par le docteur Lisa Sanders. La Fox a acheté la série, mais la présidente de la chaîne d'alors, Gail Berman, a déclaré à l'équipe de création : « je veux une série médicale, mais je ne veux pas voir de blouse blanche dans les couloirs[N 3],. »
+La série ainsi programmée a initialement pris le titre de production de Chasing Zebras, Circling the Drain : « Chasing Zebras », littéralement « à la poursuite des zèbres », est un terme d'argot médical pour un diagnostic inhabituel ou obscur[N 4] tandis que « Circling the Drain » se réfère aux cas de patients en phase terminale, dans un phénomène de descente irréversible vers la mort, pouvant être traduit en français par « avec un pied dans la tombe ». Le principe original de la série était de présenter une équipe de médecins travaillant ensemble pour essayer de « diagnostiquer l'indiagnosticable ». Shore a estimé qu'il était important d'avoir un personnage central intéressant, qui pourrait examiner les caractéristiques personnelles des patients et diagnostiquer leurs maux par la découverte de leurs secrets et de leurs mensonges.
+Alors que Shore et le reste de l'équipe de création explorent les possibilités du personnage, le concept de la série devient moins une procédure policière diagnostique qu'une histoire centrée sur le rôle principal. Le personnage est nommé « House » et il donne finalement son nom à la série. Shore a par la suite développé les personnages plus en profondeur et écrit le scénario de l'épisode pilote (intitulé Pilot[N 5] en anglais, et Les Symptômes de Rebecca Adler dans l'adaptation française). Il explique que les scénarios de plusieurs épisodes sont basés sur les travaux de Berton Roueché, chroniqueur pour The New Yorker entre 1944 et 1994, qui s'est spécialisé dans les éléments inhabituels de la médecine.
+Shore a également adapté le concept du personnage-titre à sa propre expérience en tant que patient dans un hôpital universitaire. Shore avait alors pris rendez-vous pour une douleur à la hanche, mais, arrivé à l'hôpital, la douleur avait disparu : « je savais que, dès que j'aurais tourné les talons, ils se moqueraient de moi. J'ai pensé qu'il serait intéressant de voir un personnage qui le ferait en présence du patient avant que celui-ci ait quitté la salle d'examen[N 6],. » Un élément central de la série est que le personnage principal serait en quelque sorte handicapé : à l'origine, House devait se déplacer en fauteuil roulant, mais Fox a rejeté cette option. Katie Jacobs a par la suite exprimé sa gratitude envers la chaîne d'avoir refusé l'idée originale, refus ayant conduit les scénaristes à repenser le personnage : le mettre sur ses pieds lui a offert une présence physique cruciale. Les scénaristes choisissent alors de présenter un House boiteux, conséquence d'un diagnostic erroné l'obligeant à se servir d'une canne et lui causant des douleurs chroniques, qui ont elles-mêmes entraîné une addiction aux antalgiques opiacés. Le script original évoquait un acteur connu de 34 ans dans le rôle-titre, mais Shore a déclaré qu'un médecin ressemblant à Brad Pitt n'aurait pas eu l'air convaincant.
 « House est un personnage tellement abîmé ! Il est un narrateur tellement peu fiable que son image d'enfoiré total est démentie par la chaleur et la générosité de son visage. […] Si vous regardez son visage alors qu'il peut être en train de dire la pire chose que vous ayez entendue, vous savez qu'il est à l'intérieur quelqu'un de profondément prévenant. Même s'il ne prend pas soin de vous en tant qu'individu, il se soucie d'une idée qui se révèle être importante pour vous, et qui va déterminer ce qui se passe. Je pense que le génie de Hugh Laurie vient du fait qu'il est capable de faire ressortir cette dualité[N 7]. »
-— Lisa Sanders[11]
-Inspirations</t>
+— Lisa Sanders</t>
         </is>
       </c>
     </row>
